--- a/Examples/Example-Basic01/Run-Demo01.xlsx
+++ b/Examples/Example-Basic01/Run-Demo01.xlsx
@@ -263,7 +263,7 @@
     <t>System.Diagnostics.ProcessStartInfo</t>
   </si>
   <si>
-    <t>System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread</t>
+    <t>System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread;System.Diagnostics.ProcessThread</t>
   </si>
   <si>
     <t>aesm_service</t>
@@ -613,19 +613,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>1001</v>
+        <v>944</v>
       </c>
       <c r="D2" s="1">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="E2" s="1">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="F2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="G2" s="1">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>68</v>
@@ -634,7 +634,7 @@
         <v>69</v>
       </c>
       <c r="J2" s="0">
-        <v>2993.953125</v>
+        <v>3048.140625</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>70</v>
@@ -670,7 +670,7 @@
         <v>74</v>
       </c>
       <c r="V2" s="0">
-        <v>1001</v>
+        <v>944</v>
       </c>
       <c r="W2" s="0">
         <v>18864</v>
@@ -697,22 +697,22 @@
         <v>77</v>
       </c>
       <c r="AE2" s="0">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="AF2" s="1">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="AG2" s="0">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AH2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AI2" s="0">
-        <v>720208</v>
+        <v>744976</v>
       </c>
       <c r="AJ2" s="1">
-        <v>720208</v>
+        <v>744976</v>
       </c>
       <c r="AK2" s="0">
         <v>184147968</v>
@@ -721,16 +721,16 @@
         <v>184147968</v>
       </c>
       <c r="AM2" s="0">
-        <v>183017472</v>
+        <v>198713344</v>
       </c>
       <c r="AN2" s="1">
-        <v>183017472</v>
+        <v>198713344</v>
       </c>
       <c r="AO2" s="0">
-        <v>752459776</v>
+        <v>771751936</v>
       </c>
       <c r="AP2" s="1">
-        <v>752459776</v>
+        <v>771751936</v>
       </c>
       <c r="AQ2" s="0" t="b">
         <v>1</v>
@@ -739,13 +739,13 @@
         <v>78</v>
       </c>
       <c r="AS2" s="0">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AT2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AU2" s="2">
-        <v>0.00385903935185185</v>
+        <v>0.00395905092592593</v>
       </c>
       <c r="AV2" s="0" t="s">
         <v>67</v>
@@ -772,16 +772,16 @@
         <v>80</v>
       </c>
       <c r="BD2" s="2">
-        <v>0.0346522337962963</v>
+        <v>0.0352793981481482</v>
       </c>
       <c r="BE2" s="2">
-        <v>0.0307931828703704</v>
+        <v>0.0313203472222222</v>
       </c>
       <c r="BF2" s="0">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="BG2" s="1">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="BH2" s="0" t="b">
         <v>0</v>
@@ -796,10 +796,10 @@
         <v>73</v>
       </c>
       <c r="BL2" s="0">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="BM2" s="1">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="BN2" s="0" t="s">
         <v>73</v>
@@ -822,7 +822,7 @@
         <v>4412338176</v>
       </c>
       <c r="E3" s="1">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="F3" s="1">
         <v>3366912</v>
@@ -999,10 +999,10 @@
         <v>73</v>
       </c>
       <c r="BL3" s="0">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="BM3" s="1">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="BN3" s="0" t="s">
         <v>73</v>
@@ -1019,19 +1019,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="D4" s="1">
-        <v>2203616440320</v>
+        <v>2203616907264</v>
       </c>
       <c r="E4" s="1">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="F4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="G4" s="1">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>84</v>
@@ -1040,7 +1040,7 @@
         <v>85</v>
       </c>
       <c r="J4" s="0">
-        <v>3.8125</v>
+        <v>4.03125</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>86</v>
@@ -1076,7 +1076,7 @@
         <v>74</v>
       </c>
       <c r="V4" s="0">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="W4" s="0">
         <v>16956</v>
@@ -1103,22 +1103,22 @@
         <v>92</v>
       </c>
       <c r="AE4" s="0">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="AF4" s="1">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="AG4" s="0">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AH4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AI4" s="0">
-        <v>439720</v>
+        <v>441784</v>
       </c>
       <c r="AJ4" s="1">
-        <v>439720</v>
+        <v>441784</v>
       </c>
       <c r="AK4" s="0">
         <v>67493888</v>
@@ -1145,13 +1145,13 @@
         <v>78</v>
       </c>
       <c r="AS4" s="0">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AT4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AU4" s="2">
-        <v>2.92939814814815E-05</v>
+        <v>3.07407407407407E-05</v>
       </c>
       <c r="AV4" s="0" t="s">
         <v>83</v>
@@ -1178,16 +1178,16 @@
         <v>93</v>
       </c>
       <c r="BD4" s="2">
-        <v>4.41203703703704E-05</v>
+        <v>4.66550925925926E-05</v>
       </c>
       <c r="BE4" s="2">
-        <v>1.48263888888889E-05</v>
+        <v>1.59143518518519E-05</v>
       </c>
       <c r="BF4" s="0">
-        <v>298217472</v>
+        <v>298684416</v>
       </c>
       <c r="BG4" s="1">
-        <v>2203616440320</v>
+        <v>2203616907264</v>
       </c>
       <c r="BH4" s="0" t="b">
         <v>0</v>
@@ -1202,10 +1202,10 @@
         <v>73</v>
       </c>
       <c r="BL4" s="0">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="BM4" s="1">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="BN4" s="0" t="s">
         <v>73</v>
@@ -1228,10 +1228,10 @@
         <v>2203416113152</v>
       </c>
       <c r="E5" s="1">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="F5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="G5" s="1">
         <v>8832</v>
@@ -1312,10 +1312,10 @@
         <v>8832</v>
       </c>
       <c r="AG5" s="0">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AH5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AI5" s="0">
         <v>124784</v>
@@ -1324,10 +1324,10 @@
         <v>124784</v>
       </c>
       <c r="AK5" s="0">
-        <v>1916928</v>
+        <v>1986560</v>
       </c>
       <c r="AL5" s="1">
-        <v>1916928</v>
+        <v>1986560</v>
       </c>
       <c r="AM5" s="0">
         <v>8581120</v>
@@ -1348,10 +1348,10 @@
         <v>78</v>
       </c>
       <c r="AS5" s="0">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AT5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AU5" s="2">
         <v>1.73611111111111E-07</v>
@@ -1405,10 +1405,10 @@
         <v>73</v>
       </c>
       <c r="BL5" s="0">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="BM5" s="1">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="BN5" s="0" t="s">
         <v>73</v>
@@ -1431,7 +1431,7 @@
         <v>4745867264</v>
       </c>
       <c r="E6" s="1">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="F6" s="1">
         <v>38006784</v>
@@ -1608,10 +1608,10 @@
         <v>73</v>
       </c>
       <c r="BL6" s="0">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="BM6" s="1">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="BN6" s="0" t="s">
         <v>73</v>
@@ -1847,19 +1847,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>1001</v>
+        <v>944</v>
       </c>
       <c r="D2" s="1">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="E2" s="1">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="F2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="G2" s="1">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>68</v>
@@ -1868,7 +1868,7 @@
         <v>69</v>
       </c>
       <c r="J2" s="0">
-        <v>2993.953125</v>
+        <v>3048.140625</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>70</v>
@@ -1904,7 +1904,7 @@
         <v>74</v>
       </c>
       <c r="V2" s="0">
-        <v>1001</v>
+        <v>944</v>
       </c>
       <c r="W2" s="0">
         <v>18864</v>
@@ -1931,22 +1931,22 @@
         <v>77</v>
       </c>
       <c r="AE2" s="0">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="AF2" s="1">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="AG2" s="0">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AH2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AI2" s="0">
-        <v>720208</v>
+        <v>744976</v>
       </c>
       <c r="AJ2" s="1">
-        <v>720208</v>
+        <v>744976</v>
       </c>
       <c r="AK2" s="0">
         <v>184147968</v>
@@ -1955,16 +1955,16 @@
         <v>184147968</v>
       </c>
       <c r="AM2" s="0">
-        <v>183017472</v>
+        <v>198713344</v>
       </c>
       <c r="AN2" s="1">
-        <v>183017472</v>
+        <v>198713344</v>
       </c>
       <c r="AO2" s="0">
-        <v>752459776</v>
+        <v>771751936</v>
       </c>
       <c r="AP2" s="1">
-        <v>752459776</v>
+        <v>771751936</v>
       </c>
       <c r="AQ2" s="0" t="b">
         <v>1</v>
@@ -1973,13 +1973,13 @@
         <v>78</v>
       </c>
       <c r="AS2" s="0">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AT2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AU2" s="2">
-        <v>0.00385903935185185</v>
+        <v>0.00395905092592593</v>
       </c>
       <c r="AV2" s="0" t="s">
         <v>67</v>
@@ -2006,16 +2006,16 @@
         <v>80</v>
       </c>
       <c r="BD2" s="2">
-        <v>0.0346522337962963</v>
+        <v>0.0352793981481482</v>
       </c>
       <c r="BE2" s="2">
-        <v>0.0307931828703704</v>
+        <v>0.0313203472222222</v>
       </c>
       <c r="BF2" s="0">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="BG2" s="1">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="BH2" s="0" t="b">
         <v>0</v>
@@ -2030,10 +2030,10 @@
         <v>73</v>
       </c>
       <c r="BL2" s="0">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="BM2" s="1">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="BN2" s="0" t="s">
         <v>73</v>
@@ -2056,7 +2056,7 @@
         <v>4412338176</v>
       </c>
       <c r="E3" s="1">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="F3" s="1">
         <v>3366912</v>
@@ -2233,10 +2233,10 @@
         <v>73</v>
       </c>
       <c r="BL3" s="0">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="BM3" s="1">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="BN3" s="0" t="s">
         <v>73</v>
@@ -2253,19 +2253,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="D4" s="1">
-        <v>2203616440320</v>
+        <v>2203616907264</v>
       </c>
       <c r="E4" s="1">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="F4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="G4" s="1">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>84</v>
@@ -2274,7 +2274,7 @@
         <v>85</v>
       </c>
       <c r="J4" s="0">
-        <v>3.8125</v>
+        <v>4.03125</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>86</v>
@@ -2310,7 +2310,7 @@
         <v>74</v>
       </c>
       <c r="V4" s="0">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="W4" s="0">
         <v>16956</v>
@@ -2337,22 +2337,22 @@
         <v>92</v>
       </c>
       <c r="AE4" s="0">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="AF4" s="1">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="AG4" s="0">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AH4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AI4" s="0">
-        <v>439720</v>
+        <v>441784</v>
       </c>
       <c r="AJ4" s="1">
-        <v>439720</v>
+        <v>441784</v>
       </c>
       <c r="AK4" s="0">
         <v>67493888</v>
@@ -2379,13 +2379,13 @@
         <v>78</v>
       </c>
       <c r="AS4" s="0">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AT4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AU4" s="2">
-        <v>2.92939814814815E-05</v>
+        <v>3.07407407407407E-05</v>
       </c>
       <c r="AV4" s="0" t="s">
         <v>83</v>
@@ -2412,16 +2412,16 @@
         <v>93</v>
       </c>
       <c r="BD4" s="2">
-        <v>4.41203703703704E-05</v>
+        <v>4.66550925925926E-05</v>
       </c>
       <c r="BE4" s="2">
-        <v>1.48263888888889E-05</v>
+        <v>1.59143518518519E-05</v>
       </c>
       <c r="BF4" s="0">
-        <v>298217472</v>
+        <v>298684416</v>
       </c>
       <c r="BG4" s="1">
-        <v>2203616440320</v>
+        <v>2203616907264</v>
       </c>
       <c r="BH4" s="0" t="b">
         <v>0</v>
@@ -2436,10 +2436,10 @@
         <v>73</v>
       </c>
       <c r="BL4" s="0">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="BM4" s="1">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="BN4" s="0" t="s">
         <v>73</v>
@@ -2462,10 +2462,10 @@
         <v>2203416113152</v>
       </c>
       <c r="E5" s="1">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="F5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="G5" s="1">
         <v>8832</v>
@@ -2546,10 +2546,10 @@
         <v>8832</v>
       </c>
       <c r="AG5" s="0">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AH5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AI5" s="0">
         <v>124784</v>
@@ -2558,10 +2558,10 @@
         <v>124784</v>
       </c>
       <c r="AK5" s="0">
-        <v>1916928</v>
+        <v>1986560</v>
       </c>
       <c r="AL5" s="1">
-        <v>1916928</v>
+        <v>1986560</v>
       </c>
       <c r="AM5" s="0">
         <v>8581120</v>
@@ -2582,10 +2582,10 @@
         <v>78</v>
       </c>
       <c r="AS5" s="0">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AT5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AU5" s="2">
         <v>1.73611111111111E-07</v>
@@ -2639,10 +2639,10 @@
         <v>73</v>
       </c>
       <c r="BL5" s="0">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="BM5" s="1">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="BN5" s="0" t="s">
         <v>73</v>
@@ -2665,7 +2665,7 @@
         <v>4745867264</v>
       </c>
       <c r="E6" s="1">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="F6" s="1">
         <v>38006784</v>
@@ -2842,10 +2842,10 @@
         <v>73</v>
       </c>
       <c r="BL6" s="0">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="BM6" s="1">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="BN6" s="0" t="s">
         <v>73</v>
@@ -3081,19 +3081,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>1001</v>
+        <v>944</v>
       </c>
       <c r="D2" s="1">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="E2" s="1">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="F2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="G2" s="1">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>68</v>
@@ -3102,7 +3102,7 @@
         <v>69</v>
       </c>
       <c r="J2" s="0">
-        <v>2993.953125</v>
+        <v>3048.140625</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>70</v>
@@ -3138,7 +3138,7 @@
         <v>74</v>
       </c>
       <c r="V2" s="0">
-        <v>1001</v>
+        <v>944</v>
       </c>
       <c r="W2" s="0">
         <v>18864</v>
@@ -3165,22 +3165,22 @@
         <v>77</v>
       </c>
       <c r="AE2" s="0">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="AF2" s="1">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="AG2" s="0">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AH2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AI2" s="0">
-        <v>720208</v>
+        <v>744976</v>
       </c>
       <c r="AJ2" s="1">
-        <v>720208</v>
+        <v>744976</v>
       </c>
       <c r="AK2" s="0">
         <v>184147968</v>
@@ -3189,16 +3189,16 @@
         <v>184147968</v>
       </c>
       <c r="AM2" s="0">
-        <v>183017472</v>
+        <v>198713344</v>
       </c>
       <c r="AN2" s="1">
-        <v>183017472</v>
+        <v>198713344</v>
       </c>
       <c r="AO2" s="0">
-        <v>752459776</v>
+        <v>771751936</v>
       </c>
       <c r="AP2" s="1">
-        <v>752459776</v>
+        <v>771751936</v>
       </c>
       <c r="AQ2" s="0" t="b">
         <v>1</v>
@@ -3207,13 +3207,13 @@
         <v>78</v>
       </c>
       <c r="AS2" s="0">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AT2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AU2" s="2">
-        <v>0.00385903935185185</v>
+        <v>0.00395905092592593</v>
       </c>
       <c r="AV2" s="0" t="s">
         <v>67</v>
@@ -3240,16 +3240,16 @@
         <v>80</v>
       </c>
       <c r="BD2" s="2">
-        <v>0.0346522337962963</v>
+        <v>0.0352793981481482</v>
       </c>
       <c r="BE2" s="2">
-        <v>0.0307931828703704</v>
+        <v>0.0313203472222222</v>
       </c>
       <c r="BF2" s="0">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="BG2" s="1">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="BH2" s="0" t="b">
         <v>0</v>
@@ -3264,10 +3264,10 @@
         <v>73</v>
       </c>
       <c r="BL2" s="0">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="BM2" s="1">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="BN2" s="0" t="s">
         <v>73</v>
@@ -3290,7 +3290,7 @@
         <v>4412338176</v>
       </c>
       <c r="E3" s="1">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="F3" s="1">
         <v>3366912</v>
@@ -3467,10 +3467,10 @@
         <v>73</v>
       </c>
       <c r="BL3" s="0">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="BM3" s="1">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="BN3" s="0" t="s">
         <v>73</v>
@@ -3487,19 +3487,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="D4" s="1">
-        <v>2203616440320</v>
+        <v>2203616907264</v>
       </c>
       <c r="E4" s="1">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="F4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="G4" s="1">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>84</v>
@@ -3508,7 +3508,7 @@
         <v>85</v>
       </c>
       <c r="J4" s="0">
-        <v>3.8125</v>
+        <v>4.03125</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>86</v>
@@ -3544,7 +3544,7 @@
         <v>74</v>
       </c>
       <c r="V4" s="0">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="W4" s="0">
         <v>16956</v>
@@ -3571,22 +3571,22 @@
         <v>92</v>
       </c>
       <c r="AE4" s="0">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="AF4" s="1">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="AG4" s="0">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AH4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AI4" s="0">
-        <v>439720</v>
+        <v>441784</v>
       </c>
       <c r="AJ4" s="1">
-        <v>439720</v>
+        <v>441784</v>
       </c>
       <c r="AK4" s="0">
         <v>67493888</v>
@@ -3613,13 +3613,13 @@
         <v>78</v>
       </c>
       <c r="AS4" s="0">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AT4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AU4" s="2">
-        <v>2.92939814814815E-05</v>
+        <v>3.07407407407407E-05</v>
       </c>
       <c r="AV4" s="0" t="s">
         <v>83</v>
@@ -3646,16 +3646,16 @@
         <v>93</v>
       </c>
       <c r="BD4" s="2">
-        <v>4.41203703703704E-05</v>
+        <v>4.66550925925926E-05</v>
       </c>
       <c r="BE4" s="2">
-        <v>1.48263888888889E-05</v>
+        <v>1.59143518518519E-05</v>
       </c>
       <c r="BF4" s="0">
-        <v>298217472</v>
+        <v>298684416</v>
       </c>
       <c r="BG4" s="1">
-        <v>2203616440320</v>
+        <v>2203616907264</v>
       </c>
       <c r="BH4" s="0" t="b">
         <v>0</v>
@@ -3670,10 +3670,10 @@
         <v>73</v>
       </c>
       <c r="BL4" s="0">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="BM4" s="1">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="BN4" s="0" t="s">
         <v>73</v>
@@ -3696,10 +3696,10 @@
         <v>2203416113152</v>
       </c>
       <c r="E5" s="1">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="F5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="G5" s="1">
         <v>8832</v>
@@ -3780,10 +3780,10 @@
         <v>8832</v>
       </c>
       <c r="AG5" s="0">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AH5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AI5" s="0">
         <v>124784</v>
@@ -3792,10 +3792,10 @@
         <v>124784</v>
       </c>
       <c r="AK5" s="0">
-        <v>1916928</v>
+        <v>1986560</v>
       </c>
       <c r="AL5" s="1">
-        <v>1916928</v>
+        <v>1986560</v>
       </c>
       <c r="AM5" s="0">
         <v>8581120</v>
@@ -3816,10 +3816,10 @@
         <v>78</v>
       </c>
       <c r="AS5" s="0">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AT5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AU5" s="2">
         <v>1.73611111111111E-07</v>
@@ -3873,10 +3873,10 @@
         <v>73</v>
       </c>
       <c r="BL5" s="0">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="BM5" s="1">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="BN5" s="0" t="s">
         <v>73</v>
@@ -3899,7 +3899,7 @@
         <v>4745867264</v>
       </c>
       <c r="E6" s="1">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="F6" s="1">
         <v>38006784</v>
@@ -4076,10 +4076,10 @@
         <v>73</v>
       </c>
       <c r="BL6" s="0">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="BM6" s="1">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="BN6" s="0" t="s">
         <v>73</v>
@@ -4315,19 +4315,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>1001</v>
+        <v>944</v>
       </c>
       <c r="D2" s="1">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="E2" s="1">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="F2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="G2" s="1">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>68</v>
@@ -4336,7 +4336,7 @@
         <v>69</v>
       </c>
       <c r="J2" s="0">
-        <v>2993.953125</v>
+        <v>3048.140625</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>70</v>
@@ -4372,7 +4372,7 @@
         <v>74</v>
       </c>
       <c r="V2" s="0">
-        <v>1001</v>
+        <v>944</v>
       </c>
       <c r="W2" s="0">
         <v>18864</v>
@@ -4399,22 +4399,22 @@
         <v>77</v>
       </c>
       <c r="AE2" s="0">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="AF2" s="1">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="AG2" s="0">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AH2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AI2" s="0">
-        <v>720208</v>
+        <v>744976</v>
       </c>
       <c r="AJ2" s="1">
-        <v>720208</v>
+        <v>744976</v>
       </c>
       <c r="AK2" s="0">
         <v>184147968</v>
@@ -4423,16 +4423,16 @@
         <v>184147968</v>
       </c>
       <c r="AM2" s="0">
-        <v>183017472</v>
+        <v>198713344</v>
       </c>
       <c r="AN2" s="1">
-        <v>183017472</v>
+        <v>198713344</v>
       </c>
       <c r="AO2" s="0">
-        <v>752459776</v>
+        <v>771751936</v>
       </c>
       <c r="AP2" s="1">
-        <v>752459776</v>
+        <v>771751936</v>
       </c>
       <c r="AQ2" s="0" t="b">
         <v>1</v>
@@ -4441,13 +4441,13 @@
         <v>78</v>
       </c>
       <c r="AS2" s="0">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AT2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AU2" s="2">
-        <v>0.00385903935185185</v>
+        <v>0.00395905092592593</v>
       </c>
       <c r="AV2" s="0" t="s">
         <v>67</v>
@@ -4474,16 +4474,16 @@
         <v>80</v>
       </c>
       <c r="BD2" s="2">
-        <v>0.0346522337962963</v>
+        <v>0.0352793981481482</v>
       </c>
       <c r="BE2" s="2">
-        <v>0.0307931828703704</v>
+        <v>0.0313203472222222</v>
       </c>
       <c r="BF2" s="0">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="BG2" s="1">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="BH2" s="0" t="b">
         <v>0</v>
@@ -4498,10 +4498,10 @@
         <v>73</v>
       </c>
       <c r="BL2" s="0">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="BM2" s="1">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="BN2" s="0" t="s">
         <v>73</v>
@@ -4524,7 +4524,7 @@
         <v>4412338176</v>
       </c>
       <c r="E3" s="1">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="F3" s="1">
         <v>3366912</v>
@@ -4701,10 +4701,10 @@
         <v>73</v>
       </c>
       <c r="BL3" s="0">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="BM3" s="1">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="BN3" s="0" t="s">
         <v>73</v>
@@ -4721,19 +4721,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="D4" s="1">
-        <v>2203616440320</v>
+        <v>2203616907264</v>
       </c>
       <c r="E4" s="1">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="F4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="G4" s="1">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>84</v>
@@ -4742,7 +4742,7 @@
         <v>85</v>
       </c>
       <c r="J4" s="0">
-        <v>3.8125</v>
+        <v>4.03125</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>86</v>
@@ -4778,7 +4778,7 @@
         <v>74</v>
       </c>
       <c r="V4" s="0">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="W4" s="0">
         <v>16956</v>
@@ -4805,22 +4805,22 @@
         <v>92</v>
       </c>
       <c r="AE4" s="0">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="AF4" s="1">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="AG4" s="0">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AH4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AI4" s="0">
-        <v>439720</v>
+        <v>441784</v>
       </c>
       <c r="AJ4" s="1">
-        <v>439720</v>
+        <v>441784</v>
       </c>
       <c r="AK4" s="0">
         <v>67493888</v>
@@ -4847,13 +4847,13 @@
         <v>78</v>
       </c>
       <c r="AS4" s="0">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AT4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AU4" s="2">
-        <v>2.92939814814815E-05</v>
+        <v>3.07407407407407E-05</v>
       </c>
       <c r="AV4" s="0" t="s">
         <v>83</v>
@@ -4880,16 +4880,16 @@
         <v>93</v>
       </c>
       <c r="BD4" s="2">
-        <v>4.41203703703704E-05</v>
+        <v>4.66550925925926E-05</v>
       </c>
       <c r="BE4" s="2">
-        <v>1.48263888888889E-05</v>
+        <v>1.59143518518519E-05</v>
       </c>
       <c r="BF4" s="0">
-        <v>298217472</v>
+        <v>298684416</v>
       </c>
       <c r="BG4" s="1">
-        <v>2203616440320</v>
+        <v>2203616907264</v>
       </c>
       <c r="BH4" s="0" t="b">
         <v>0</v>
@@ -4904,10 +4904,10 @@
         <v>73</v>
       </c>
       <c r="BL4" s="0">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="BM4" s="1">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="BN4" s="0" t="s">
         <v>73</v>
@@ -4930,10 +4930,10 @@
         <v>2203416113152</v>
       </c>
       <c r="E5" s="1">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="F5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="G5" s="1">
         <v>8832</v>
@@ -5014,10 +5014,10 @@
         <v>8832</v>
       </c>
       <c r="AG5" s="0">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AH5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AI5" s="0">
         <v>124784</v>
@@ -5026,10 +5026,10 @@
         <v>124784</v>
       </c>
       <c r="AK5" s="0">
-        <v>1916928</v>
+        <v>1986560</v>
       </c>
       <c r="AL5" s="1">
-        <v>1916928</v>
+        <v>1986560</v>
       </c>
       <c r="AM5" s="0">
         <v>8581120</v>
@@ -5050,10 +5050,10 @@
         <v>78</v>
       </c>
       <c r="AS5" s="0">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AT5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AU5" s="2">
         <v>1.73611111111111E-07</v>
@@ -5107,10 +5107,10 @@
         <v>73</v>
       </c>
       <c r="BL5" s="0">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="BM5" s="1">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="BN5" s="0" t="s">
         <v>73</v>
@@ -5133,7 +5133,7 @@
         <v>4745867264</v>
       </c>
       <c r="E6" s="1">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="F6" s="1">
         <v>38006784</v>
@@ -5310,10 +5310,10 @@
         <v>73</v>
       </c>
       <c r="BL6" s="0">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="BM6" s="1">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="BN6" s="0" t="s">
         <v>73</v>
@@ -5549,19 +5549,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>1001</v>
+        <v>944</v>
       </c>
       <c r="D2" s="1">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="E2" s="1">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="F2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="G2" s="1">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>68</v>
@@ -5570,7 +5570,7 @@
         <v>69</v>
       </c>
       <c r="J2" s="0">
-        <v>2993.953125</v>
+        <v>3048.140625</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>70</v>
@@ -5606,7 +5606,7 @@
         <v>74</v>
       </c>
       <c r="V2" s="0">
-        <v>1001</v>
+        <v>944</v>
       </c>
       <c r="W2" s="0">
         <v>18864</v>
@@ -5633,22 +5633,22 @@
         <v>77</v>
       </c>
       <c r="AE2" s="0">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="AF2" s="1">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="AG2" s="0">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AH2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AI2" s="0">
-        <v>720208</v>
+        <v>744976</v>
       </c>
       <c r="AJ2" s="1">
-        <v>720208</v>
+        <v>744976</v>
       </c>
       <c r="AK2" s="0">
         <v>184147968</v>
@@ -5657,16 +5657,16 @@
         <v>184147968</v>
       </c>
       <c r="AM2" s="0">
-        <v>183017472</v>
+        <v>198713344</v>
       </c>
       <c r="AN2" s="1">
-        <v>183017472</v>
+        <v>198713344</v>
       </c>
       <c r="AO2" s="0">
-        <v>752459776</v>
+        <v>771751936</v>
       </c>
       <c r="AP2" s="1">
-        <v>752459776</v>
+        <v>771751936</v>
       </c>
       <c r="AQ2" s="0" t="b">
         <v>1</v>
@@ -5675,13 +5675,13 @@
         <v>78</v>
       </c>
       <c r="AS2" s="0">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AT2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AU2" s="2">
-        <v>0.00385903935185185</v>
+        <v>0.00395905092592593</v>
       </c>
       <c r="AV2" s="0" t="s">
         <v>67</v>
@@ -5708,16 +5708,16 @@
         <v>80</v>
       </c>
       <c r="BD2" s="2">
-        <v>0.0346522337962963</v>
+        <v>0.0352793981481482</v>
       </c>
       <c r="BE2" s="2">
-        <v>0.0307931828703704</v>
+        <v>0.0313203472222222</v>
       </c>
       <c r="BF2" s="0">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="BG2" s="1">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="BH2" s="0" t="b">
         <v>0</v>
@@ -5732,10 +5732,10 @@
         <v>73</v>
       </c>
       <c r="BL2" s="0">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="BM2" s="1">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="BN2" s="0" t="s">
         <v>73</v>
@@ -5758,7 +5758,7 @@
         <v>4412338176</v>
       </c>
       <c r="E3" s="1">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="F3" s="1">
         <v>3366912</v>
@@ -5935,10 +5935,10 @@
         <v>73</v>
       </c>
       <c r="BL3" s="0">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="BM3" s="1">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="BN3" s="0" t="s">
         <v>73</v>
@@ -5955,19 +5955,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="D4" s="1">
-        <v>2203616440320</v>
+        <v>2203616907264</v>
       </c>
       <c r="E4" s="1">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="F4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="G4" s="1">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>84</v>
@@ -5976,7 +5976,7 @@
         <v>85</v>
       </c>
       <c r="J4" s="0">
-        <v>3.8125</v>
+        <v>4.03125</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>86</v>
@@ -6012,7 +6012,7 @@
         <v>74</v>
       </c>
       <c r="V4" s="0">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="W4" s="0">
         <v>16956</v>
@@ -6039,22 +6039,22 @@
         <v>92</v>
       </c>
       <c r="AE4" s="0">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="AF4" s="1">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="AG4" s="0">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AH4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AI4" s="0">
-        <v>439720</v>
+        <v>441784</v>
       </c>
       <c r="AJ4" s="1">
-        <v>439720</v>
+        <v>441784</v>
       </c>
       <c r="AK4" s="0">
         <v>67493888</v>
@@ -6081,13 +6081,13 @@
         <v>78</v>
       </c>
       <c r="AS4" s="0">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AT4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AU4" s="2">
-        <v>2.92939814814815E-05</v>
+        <v>3.07407407407407E-05</v>
       </c>
       <c r="AV4" s="0" t="s">
         <v>83</v>
@@ -6114,16 +6114,16 @@
         <v>93</v>
       </c>
       <c r="BD4" s="2">
-        <v>4.41203703703704E-05</v>
+        <v>4.66550925925926E-05</v>
       </c>
       <c r="BE4" s="2">
-        <v>1.48263888888889E-05</v>
+        <v>1.59143518518519E-05</v>
       </c>
       <c r="BF4" s="0">
-        <v>298217472</v>
+        <v>298684416</v>
       </c>
       <c r="BG4" s="1">
-        <v>2203616440320</v>
+        <v>2203616907264</v>
       </c>
       <c r="BH4" s="0" t="b">
         <v>0</v>
@@ -6138,10 +6138,10 @@
         <v>73</v>
       </c>
       <c r="BL4" s="0">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="BM4" s="1">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="BN4" s="0" t="s">
         <v>73</v>
@@ -6164,10 +6164,10 @@
         <v>2203416113152</v>
       </c>
       <c r="E5" s="1">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="F5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="G5" s="1">
         <v>8832</v>
@@ -6248,10 +6248,10 @@
         <v>8832</v>
       </c>
       <c r="AG5" s="0">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AH5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AI5" s="0">
         <v>124784</v>
@@ -6260,10 +6260,10 @@
         <v>124784</v>
       </c>
       <c r="AK5" s="0">
-        <v>1916928</v>
+        <v>1986560</v>
       </c>
       <c r="AL5" s="1">
-        <v>1916928</v>
+        <v>1986560</v>
       </c>
       <c r="AM5" s="0">
         <v>8581120</v>
@@ -6284,10 +6284,10 @@
         <v>78</v>
       </c>
       <c r="AS5" s="0">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AT5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AU5" s="2">
         <v>1.73611111111111E-07</v>
@@ -6341,10 +6341,10 @@
         <v>73</v>
       </c>
       <c r="BL5" s="0">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="BM5" s="1">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="BN5" s="0" t="s">
         <v>73</v>
@@ -6367,7 +6367,7 @@
         <v>4745867264</v>
       </c>
       <c r="E6" s="1">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="F6" s="1">
         <v>38006784</v>
@@ -6544,10 +6544,10 @@
         <v>73</v>
       </c>
       <c r="BL6" s="0">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="BM6" s="1">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="BN6" s="0" t="s">
         <v>73</v>
@@ -6783,19 +6783,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>1001</v>
+        <v>944</v>
       </c>
       <c r="D2" s="1">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="E2" s="1">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="F2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="G2" s="1">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>68</v>
@@ -6804,7 +6804,7 @@
         <v>69</v>
       </c>
       <c r="J2" s="0">
-        <v>2993.953125</v>
+        <v>3048.140625</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>70</v>
@@ -6840,7 +6840,7 @@
         <v>74</v>
       </c>
       <c r="V2" s="0">
-        <v>1001</v>
+        <v>944</v>
       </c>
       <c r="W2" s="0">
         <v>18864</v>
@@ -6867,22 +6867,22 @@
         <v>77</v>
       </c>
       <c r="AE2" s="0">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="AF2" s="1">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="AG2" s="0">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AH2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AI2" s="0">
-        <v>720208</v>
+        <v>744976</v>
       </c>
       <c r="AJ2" s="1">
-        <v>720208</v>
+        <v>744976</v>
       </c>
       <c r="AK2" s="0">
         <v>184147968</v>
@@ -6891,16 +6891,16 @@
         <v>184147968</v>
       </c>
       <c r="AM2" s="0">
-        <v>183017472</v>
+        <v>198713344</v>
       </c>
       <c r="AN2" s="1">
-        <v>183017472</v>
+        <v>198713344</v>
       </c>
       <c r="AO2" s="0">
-        <v>752459776</v>
+        <v>771751936</v>
       </c>
       <c r="AP2" s="1">
-        <v>752459776</v>
+        <v>771751936</v>
       </c>
       <c r="AQ2" s="0" t="b">
         <v>1</v>
@@ -6909,13 +6909,13 @@
         <v>78</v>
       </c>
       <c r="AS2" s="0">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AT2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AU2" s="2">
-        <v>0.00385903935185185</v>
+        <v>0.00395905092592593</v>
       </c>
       <c r="AV2" s="0" t="s">
         <v>67</v>
@@ -6942,16 +6942,16 @@
         <v>80</v>
       </c>
       <c r="BD2" s="2">
-        <v>0.0346522337962963</v>
+        <v>0.0352793981481482</v>
       </c>
       <c r="BE2" s="2">
-        <v>0.0307931828703704</v>
+        <v>0.0313203472222222</v>
       </c>
       <c r="BF2" s="0">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="BG2" s="1">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="BH2" s="0" t="b">
         <v>0</v>
@@ -6966,10 +6966,10 @@
         <v>73</v>
       </c>
       <c r="BL2" s="0">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="BM2" s="1">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="BN2" s="0" t="s">
         <v>73</v>
@@ -6992,7 +6992,7 @@
         <v>4412338176</v>
       </c>
       <c r="E3" s="1">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="F3" s="1">
         <v>3366912</v>
@@ -7169,10 +7169,10 @@
         <v>73</v>
       </c>
       <c r="BL3" s="0">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="BM3" s="1">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="BN3" s="0" t="s">
         <v>73</v>
@@ -7189,19 +7189,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="D4" s="1">
-        <v>2203616440320</v>
+        <v>2203616907264</v>
       </c>
       <c r="E4" s="1">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="F4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="G4" s="1">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>84</v>
@@ -7210,7 +7210,7 @@
         <v>85</v>
       </c>
       <c r="J4" s="0">
-        <v>3.8125</v>
+        <v>4.03125</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>86</v>
@@ -7246,7 +7246,7 @@
         <v>74</v>
       </c>
       <c r="V4" s="0">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="W4" s="0">
         <v>16956</v>
@@ -7273,22 +7273,22 @@
         <v>92</v>
       </c>
       <c r="AE4" s="0">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="AF4" s="1">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="AG4" s="0">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AH4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AI4" s="0">
-        <v>439720</v>
+        <v>441784</v>
       </c>
       <c r="AJ4" s="1">
-        <v>439720</v>
+        <v>441784</v>
       </c>
       <c r="AK4" s="0">
         <v>67493888</v>
@@ -7315,13 +7315,13 @@
         <v>78</v>
       </c>
       <c r="AS4" s="0">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AT4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AU4" s="2">
-        <v>2.92939814814815E-05</v>
+        <v>3.07407407407407E-05</v>
       </c>
       <c r="AV4" s="0" t="s">
         <v>83</v>
@@ -7348,16 +7348,16 @@
         <v>93</v>
       </c>
       <c r="BD4" s="2">
-        <v>4.41203703703704E-05</v>
+        <v>4.66550925925926E-05</v>
       </c>
       <c r="BE4" s="2">
-        <v>1.48263888888889E-05</v>
+        <v>1.59143518518519E-05</v>
       </c>
       <c r="BF4" s="0">
-        <v>298217472</v>
+        <v>298684416</v>
       </c>
       <c r="BG4" s="1">
-        <v>2203616440320</v>
+        <v>2203616907264</v>
       </c>
       <c r="BH4" s="0" t="b">
         <v>0</v>
@@ -7372,10 +7372,10 @@
         <v>73</v>
       </c>
       <c r="BL4" s="0">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="BM4" s="1">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="BN4" s="0" t="s">
         <v>73</v>
@@ -7398,10 +7398,10 @@
         <v>2203416113152</v>
       </c>
       <c r="E5" s="1">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="F5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="G5" s="1">
         <v>8832</v>
@@ -7482,10 +7482,10 @@
         <v>8832</v>
       </c>
       <c r="AG5" s="0">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AH5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AI5" s="0">
         <v>124784</v>
@@ -7494,10 +7494,10 @@
         <v>124784</v>
       </c>
       <c r="AK5" s="0">
-        <v>1916928</v>
+        <v>1986560</v>
       </c>
       <c r="AL5" s="1">
-        <v>1916928</v>
+        <v>1986560</v>
       </c>
       <c r="AM5" s="0">
         <v>8581120</v>
@@ -7518,10 +7518,10 @@
         <v>78</v>
       </c>
       <c r="AS5" s="0">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AT5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AU5" s="2">
         <v>1.73611111111111E-07</v>
@@ -7575,10 +7575,10 @@
         <v>73</v>
       </c>
       <c r="BL5" s="0">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="BM5" s="1">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="BN5" s="0" t="s">
         <v>73</v>
@@ -7601,7 +7601,7 @@
         <v>4745867264</v>
       </c>
       <c r="E6" s="1">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="F6" s="1">
         <v>38006784</v>
@@ -7778,10 +7778,10 @@
         <v>73</v>
       </c>
       <c r="BL6" s="0">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="BM6" s="1">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="BN6" s="0" t="s">
         <v>73</v>
@@ -8017,19 +8017,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>1001</v>
+        <v>944</v>
       </c>
       <c r="D2" s="1">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="E2" s="1">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="F2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="G2" s="1">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>68</v>
@@ -8038,7 +8038,7 @@
         <v>69</v>
       </c>
       <c r="J2" s="0">
-        <v>2993.953125</v>
+        <v>3048.140625</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>70</v>
@@ -8074,7 +8074,7 @@
         <v>74</v>
       </c>
       <c r="V2" s="0">
-        <v>1001</v>
+        <v>944</v>
       </c>
       <c r="W2" s="0">
         <v>18864</v>
@@ -8101,22 +8101,22 @@
         <v>77</v>
       </c>
       <c r="AE2" s="0">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="AF2" s="1">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="AG2" s="0">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AH2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AI2" s="0">
-        <v>720208</v>
+        <v>744976</v>
       </c>
       <c r="AJ2" s="1">
-        <v>720208</v>
+        <v>744976</v>
       </c>
       <c r="AK2" s="0">
         <v>184147968</v>
@@ -8125,16 +8125,16 @@
         <v>184147968</v>
       </c>
       <c r="AM2" s="0">
-        <v>183017472</v>
+        <v>198713344</v>
       </c>
       <c r="AN2" s="1">
-        <v>183017472</v>
+        <v>198713344</v>
       </c>
       <c r="AO2" s="0">
-        <v>752459776</v>
+        <v>771751936</v>
       </c>
       <c r="AP2" s="1">
-        <v>752459776</v>
+        <v>771751936</v>
       </c>
       <c r="AQ2" s="0" t="b">
         <v>1</v>
@@ -8143,13 +8143,13 @@
         <v>78</v>
       </c>
       <c r="AS2" s="0">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AT2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AU2" s="2">
-        <v>0.00385903935185185</v>
+        <v>0.00395905092592593</v>
       </c>
       <c r="AV2" s="0" t="s">
         <v>67</v>
@@ -8176,16 +8176,16 @@
         <v>80</v>
       </c>
       <c r="BD2" s="2">
-        <v>0.0346522337962963</v>
+        <v>0.0352793981481482</v>
       </c>
       <c r="BE2" s="2">
-        <v>0.0307931828703704</v>
+        <v>0.0313203472222222</v>
       </c>
       <c r="BF2" s="0">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="BG2" s="1">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="BH2" s="0" t="b">
         <v>0</v>
@@ -8200,10 +8200,10 @@
         <v>73</v>
       </c>
       <c r="BL2" s="0">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="BM2" s="1">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="BN2" s="0" t="s">
         <v>73</v>
@@ -8226,7 +8226,7 @@
         <v>4412338176</v>
       </c>
       <c r="E3" s="1">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="F3" s="1">
         <v>3366912</v>
@@ -8403,10 +8403,10 @@
         <v>73</v>
       </c>
       <c r="BL3" s="0">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="BM3" s="1">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="BN3" s="0" t="s">
         <v>73</v>
@@ -8423,19 +8423,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="D4" s="1">
-        <v>2203616440320</v>
+        <v>2203616907264</v>
       </c>
       <c r="E4" s="1">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="F4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="G4" s="1">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>84</v>
@@ -8444,7 +8444,7 @@
         <v>85</v>
       </c>
       <c r="J4" s="0">
-        <v>3.8125</v>
+        <v>4.03125</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>86</v>
@@ -8480,7 +8480,7 @@
         <v>74</v>
       </c>
       <c r="V4" s="0">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="W4" s="0">
         <v>16956</v>
@@ -8507,22 +8507,22 @@
         <v>92</v>
       </c>
       <c r="AE4" s="0">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="AF4" s="1">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="AG4" s="0">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AH4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AI4" s="0">
-        <v>439720</v>
+        <v>441784</v>
       </c>
       <c r="AJ4" s="1">
-        <v>439720</v>
+        <v>441784</v>
       </c>
       <c r="AK4" s="0">
         <v>67493888</v>
@@ -8549,13 +8549,13 @@
         <v>78</v>
       </c>
       <c r="AS4" s="0">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AT4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AU4" s="2">
-        <v>2.92939814814815E-05</v>
+        <v>3.07407407407407E-05</v>
       </c>
       <c r="AV4" s="0" t="s">
         <v>83</v>
@@ -8582,16 +8582,16 @@
         <v>93</v>
       </c>
       <c r="BD4" s="2">
-        <v>4.41203703703704E-05</v>
+        <v>4.66550925925926E-05</v>
       </c>
       <c r="BE4" s="2">
-        <v>1.48263888888889E-05</v>
+        <v>1.59143518518519E-05</v>
       </c>
       <c r="BF4" s="0">
-        <v>298217472</v>
+        <v>298684416</v>
       </c>
       <c r="BG4" s="1">
-        <v>2203616440320</v>
+        <v>2203616907264</v>
       </c>
       <c r="BH4" s="0" t="b">
         <v>0</v>
@@ -8606,10 +8606,10 @@
         <v>73</v>
       </c>
       <c r="BL4" s="0">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="BM4" s="1">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="BN4" s="0" t="s">
         <v>73</v>
@@ -8632,10 +8632,10 @@
         <v>2203416113152</v>
       </c>
       <c r="E5" s="1">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="F5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="G5" s="1">
         <v>8832</v>
@@ -8716,10 +8716,10 @@
         <v>8832</v>
       </c>
       <c r="AG5" s="0">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AH5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AI5" s="0">
         <v>124784</v>
@@ -8728,10 +8728,10 @@
         <v>124784</v>
       </c>
       <c r="AK5" s="0">
-        <v>1916928</v>
+        <v>1986560</v>
       </c>
       <c r="AL5" s="1">
-        <v>1916928</v>
+        <v>1986560</v>
       </c>
       <c r="AM5" s="0">
         <v>8581120</v>
@@ -8752,10 +8752,10 @@
         <v>78</v>
       </c>
       <c r="AS5" s="0">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AT5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AU5" s="2">
         <v>1.73611111111111E-07</v>
@@ -8809,10 +8809,10 @@
         <v>73</v>
       </c>
       <c r="BL5" s="0">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="BM5" s="1">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="BN5" s="0" t="s">
         <v>73</v>
@@ -8835,7 +8835,7 @@
         <v>4745867264</v>
       </c>
       <c r="E6" s="1">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="F6" s="1">
         <v>38006784</v>
@@ -9012,10 +9012,10 @@
         <v>73</v>
       </c>
       <c r="BL6" s="0">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="BM6" s="1">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="BN6" s="0" t="s">
         <v>73</v>
@@ -9251,19 +9251,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>1001</v>
+        <v>944</v>
       </c>
       <c r="D2" s="1">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="E2" s="1">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="F2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="G2" s="1">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>68</v>
@@ -9272,7 +9272,7 @@
         <v>69</v>
       </c>
       <c r="J2" s="0">
-        <v>2993.953125</v>
+        <v>3048.140625</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>70</v>
@@ -9308,7 +9308,7 @@
         <v>74</v>
       </c>
       <c r="V2" s="0">
-        <v>1001</v>
+        <v>944</v>
       </c>
       <c r="W2" s="0">
         <v>18864</v>
@@ -9335,22 +9335,22 @@
         <v>77</v>
       </c>
       <c r="AE2" s="0">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="AF2" s="1">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="AG2" s="0">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AH2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AI2" s="0">
-        <v>720208</v>
+        <v>744976</v>
       </c>
       <c r="AJ2" s="1">
-        <v>720208</v>
+        <v>744976</v>
       </c>
       <c r="AK2" s="0">
         <v>184147968</v>
@@ -9359,16 +9359,16 @@
         <v>184147968</v>
       </c>
       <c r="AM2" s="0">
-        <v>183017472</v>
+        <v>198713344</v>
       </c>
       <c r="AN2" s="1">
-        <v>183017472</v>
+        <v>198713344</v>
       </c>
       <c r="AO2" s="0">
-        <v>752459776</v>
+        <v>771751936</v>
       </c>
       <c r="AP2" s="1">
-        <v>752459776</v>
+        <v>771751936</v>
       </c>
       <c r="AQ2" s="0" t="b">
         <v>1</v>
@@ -9377,13 +9377,13 @@
         <v>78</v>
       </c>
       <c r="AS2" s="0">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AT2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AU2" s="2">
-        <v>0.00385903935185185</v>
+        <v>0.00395905092592593</v>
       </c>
       <c r="AV2" s="0" t="s">
         <v>67</v>
@@ -9410,16 +9410,16 @@
         <v>80</v>
       </c>
       <c r="BD2" s="2">
-        <v>0.0346522337962963</v>
+        <v>0.0352793981481482</v>
       </c>
       <c r="BE2" s="2">
-        <v>0.0307931828703704</v>
+        <v>0.0313203472222222</v>
       </c>
       <c r="BF2" s="0">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="BG2" s="1">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="BH2" s="0" t="b">
         <v>0</v>
@@ -9434,10 +9434,10 @@
         <v>73</v>
       </c>
       <c r="BL2" s="0">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="BM2" s="1">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="BN2" s="0" t="s">
         <v>73</v>
@@ -9460,7 +9460,7 @@
         <v>4412338176</v>
       </c>
       <c r="E3" s="1">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="F3" s="1">
         <v>3366912</v>
@@ -9637,10 +9637,10 @@
         <v>73</v>
       </c>
       <c r="BL3" s="0">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="BM3" s="1">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="BN3" s="0" t="s">
         <v>73</v>
@@ -9657,19 +9657,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="D4" s="1">
-        <v>2203616440320</v>
+        <v>2203616907264</v>
       </c>
       <c r="E4" s="1">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="F4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="G4" s="1">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>84</v>
@@ -9678,7 +9678,7 @@
         <v>85</v>
       </c>
       <c r="J4" s="0">
-        <v>3.8125</v>
+        <v>4.03125</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>86</v>
@@ -9714,7 +9714,7 @@
         <v>74</v>
       </c>
       <c r="V4" s="0">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="W4" s="0">
         <v>16956</v>
@@ -9741,22 +9741,22 @@
         <v>92</v>
       </c>
       <c r="AE4" s="0">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="AF4" s="1">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="AG4" s="0">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AH4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AI4" s="0">
-        <v>439720</v>
+        <v>441784</v>
       </c>
       <c r="AJ4" s="1">
-        <v>439720</v>
+        <v>441784</v>
       </c>
       <c r="AK4" s="0">
         <v>67493888</v>
@@ -9783,13 +9783,13 @@
         <v>78</v>
       </c>
       <c r="AS4" s="0">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AT4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AU4" s="2">
-        <v>2.92939814814815E-05</v>
+        <v>3.07407407407407E-05</v>
       </c>
       <c r="AV4" s="0" t="s">
         <v>83</v>
@@ -9816,16 +9816,16 @@
         <v>93</v>
       </c>
       <c r="BD4" s="2">
-        <v>4.41203703703704E-05</v>
+        <v>4.66550925925926E-05</v>
       </c>
       <c r="BE4" s="2">
-        <v>1.48263888888889E-05</v>
+        <v>1.59143518518519E-05</v>
       </c>
       <c r="BF4" s="0">
-        <v>298217472</v>
+        <v>298684416</v>
       </c>
       <c r="BG4" s="1">
-        <v>2203616440320</v>
+        <v>2203616907264</v>
       </c>
       <c r="BH4" s="0" t="b">
         <v>0</v>
@@ -9840,10 +9840,10 @@
         <v>73</v>
       </c>
       <c r="BL4" s="0">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="BM4" s="1">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="BN4" s="0" t="s">
         <v>73</v>
@@ -9866,10 +9866,10 @@
         <v>2203416113152</v>
       </c>
       <c r="E5" s="1">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="F5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="G5" s="1">
         <v>8832</v>
@@ -9950,10 +9950,10 @@
         <v>8832</v>
       </c>
       <c r="AG5" s="0">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AH5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AI5" s="0">
         <v>124784</v>
@@ -9962,10 +9962,10 @@
         <v>124784</v>
       </c>
       <c r="AK5" s="0">
-        <v>1916928</v>
+        <v>1986560</v>
       </c>
       <c r="AL5" s="1">
-        <v>1916928</v>
+        <v>1986560</v>
       </c>
       <c r="AM5" s="0">
         <v>8581120</v>
@@ -9986,10 +9986,10 @@
         <v>78</v>
       </c>
       <c r="AS5" s="0">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AT5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AU5" s="2">
         <v>1.73611111111111E-07</v>
@@ -10043,10 +10043,10 @@
         <v>73</v>
       </c>
       <c r="BL5" s="0">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="BM5" s="1">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="BN5" s="0" t="s">
         <v>73</v>
@@ -10069,7 +10069,7 @@
         <v>4745867264</v>
       </c>
       <c r="E6" s="1">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="F6" s="1">
         <v>38006784</v>
@@ -10246,10 +10246,10 @@
         <v>73</v>
       </c>
       <c r="BL6" s="0">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="BM6" s="1">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="BN6" s="0" t="s">
         <v>73</v>
@@ -10485,19 +10485,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>1001</v>
+        <v>944</v>
       </c>
       <c r="D2" s="1">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="E2" s="1">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="F2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="G2" s="1">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>68</v>
@@ -10506,7 +10506,7 @@
         <v>69</v>
       </c>
       <c r="J2" s="0">
-        <v>2993.953125</v>
+        <v>3048.140625</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>70</v>
@@ -10542,7 +10542,7 @@
         <v>74</v>
       </c>
       <c r="V2" s="0">
-        <v>1001</v>
+        <v>944</v>
       </c>
       <c r="W2" s="0">
         <v>18864</v>
@@ -10569,22 +10569,22 @@
         <v>77</v>
       </c>
       <c r="AE2" s="0">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="AF2" s="1">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="AG2" s="0">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AH2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AI2" s="0">
-        <v>720208</v>
+        <v>744976</v>
       </c>
       <c r="AJ2" s="1">
-        <v>720208</v>
+        <v>744976</v>
       </c>
       <c r="AK2" s="0">
         <v>184147968</v>
@@ -10593,16 +10593,16 @@
         <v>184147968</v>
       </c>
       <c r="AM2" s="0">
-        <v>183017472</v>
+        <v>198713344</v>
       </c>
       <c r="AN2" s="1">
-        <v>183017472</v>
+        <v>198713344</v>
       </c>
       <c r="AO2" s="0">
-        <v>752459776</v>
+        <v>771751936</v>
       </c>
       <c r="AP2" s="1">
-        <v>752459776</v>
+        <v>771751936</v>
       </c>
       <c r="AQ2" s="0" t="b">
         <v>1</v>
@@ -10611,13 +10611,13 @@
         <v>78</v>
       </c>
       <c r="AS2" s="0">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AT2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AU2" s="2">
-        <v>0.00385903935185185</v>
+        <v>0.00395905092592593</v>
       </c>
       <c r="AV2" s="0" t="s">
         <v>67</v>
@@ -10644,16 +10644,16 @@
         <v>80</v>
       </c>
       <c r="BD2" s="2">
-        <v>0.0346522337962963</v>
+        <v>0.0352793981481482</v>
       </c>
       <c r="BE2" s="2">
-        <v>0.0307931828703704</v>
+        <v>0.0313203472222222</v>
       </c>
       <c r="BF2" s="0">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="BG2" s="1">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="BH2" s="0" t="b">
         <v>0</v>
@@ -10668,10 +10668,10 @@
         <v>73</v>
       </c>
       <c r="BL2" s="0">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="BM2" s="1">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="BN2" s="0" t="s">
         <v>73</v>
@@ -10694,7 +10694,7 @@
         <v>4412338176</v>
       </c>
       <c r="E3" s="1">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="F3" s="1">
         <v>3366912</v>
@@ -10871,10 +10871,10 @@
         <v>73</v>
       </c>
       <c r="BL3" s="0">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="BM3" s="1">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="BN3" s="0" t="s">
         <v>73</v>
@@ -10891,19 +10891,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="D4" s="1">
-        <v>2203616440320</v>
+        <v>2203616907264</v>
       </c>
       <c r="E4" s="1">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="F4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="G4" s="1">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>84</v>
@@ -10912,7 +10912,7 @@
         <v>85</v>
       </c>
       <c r="J4" s="0">
-        <v>3.8125</v>
+        <v>4.03125</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>86</v>
@@ -10948,7 +10948,7 @@
         <v>74</v>
       </c>
       <c r="V4" s="0">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="W4" s="0">
         <v>16956</v>
@@ -10975,22 +10975,22 @@
         <v>92</v>
       </c>
       <c r="AE4" s="0">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="AF4" s="1">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="AG4" s="0">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AH4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AI4" s="0">
-        <v>439720</v>
+        <v>441784</v>
       </c>
       <c r="AJ4" s="1">
-        <v>439720</v>
+        <v>441784</v>
       </c>
       <c r="AK4" s="0">
         <v>67493888</v>
@@ -11017,13 +11017,13 @@
         <v>78</v>
       </c>
       <c r="AS4" s="0">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AT4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AU4" s="2">
-        <v>2.92939814814815E-05</v>
+        <v>3.07407407407407E-05</v>
       </c>
       <c r="AV4" s="0" t="s">
         <v>83</v>
@@ -11050,16 +11050,16 @@
         <v>93</v>
       </c>
       <c r="BD4" s="2">
-        <v>4.41203703703704E-05</v>
+        <v>4.66550925925926E-05</v>
       </c>
       <c r="BE4" s="2">
-        <v>1.48263888888889E-05</v>
+        <v>1.59143518518519E-05</v>
       </c>
       <c r="BF4" s="0">
-        <v>298217472</v>
+        <v>298684416</v>
       </c>
       <c r="BG4" s="1">
-        <v>2203616440320</v>
+        <v>2203616907264</v>
       </c>
       <c r="BH4" s="0" t="b">
         <v>0</v>
@@ -11074,10 +11074,10 @@
         <v>73</v>
       </c>
       <c r="BL4" s="0">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="BM4" s="1">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="BN4" s="0" t="s">
         <v>73</v>
@@ -11100,10 +11100,10 @@
         <v>2203416113152</v>
       </c>
       <c r="E5" s="1">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="F5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="G5" s="1">
         <v>8832</v>
@@ -11184,10 +11184,10 @@
         <v>8832</v>
       </c>
       <c r="AG5" s="0">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AH5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AI5" s="0">
         <v>124784</v>
@@ -11196,10 +11196,10 @@
         <v>124784</v>
       </c>
       <c r="AK5" s="0">
-        <v>1916928</v>
+        <v>1986560</v>
       </c>
       <c r="AL5" s="1">
-        <v>1916928</v>
+        <v>1986560</v>
       </c>
       <c r="AM5" s="0">
         <v>8581120</v>
@@ -11220,10 +11220,10 @@
         <v>78</v>
       </c>
       <c r="AS5" s="0">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AT5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AU5" s="2">
         <v>1.73611111111111E-07</v>
@@ -11277,10 +11277,10 @@
         <v>73</v>
       </c>
       <c r="BL5" s="0">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="BM5" s="1">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="BN5" s="0" t="s">
         <v>73</v>
@@ -11303,7 +11303,7 @@
         <v>4745867264</v>
       </c>
       <c r="E6" s="1">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="F6" s="1">
         <v>38006784</v>
@@ -11480,10 +11480,10 @@
         <v>73</v>
       </c>
       <c r="BL6" s="0">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="BM6" s="1">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="BN6" s="0" t="s">
         <v>73</v>
@@ -11719,19 +11719,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>1001</v>
+        <v>944</v>
       </c>
       <c r="D2" s="1">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="E2" s="1">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="F2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="G2" s="1">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>68</v>
@@ -11740,7 +11740,7 @@
         <v>69</v>
       </c>
       <c r="J2" s="0">
-        <v>2993.953125</v>
+        <v>3048.140625</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>70</v>
@@ -11776,7 +11776,7 @@
         <v>74</v>
       </c>
       <c r="V2" s="0">
-        <v>1001</v>
+        <v>944</v>
       </c>
       <c r="W2" s="0">
         <v>18864</v>
@@ -11803,22 +11803,22 @@
         <v>77</v>
       </c>
       <c r="AE2" s="0">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="AF2" s="1">
-        <v>63512</v>
+        <v>66392</v>
       </c>
       <c r="AG2" s="0">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AH2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AI2" s="0">
-        <v>720208</v>
+        <v>744976</v>
       </c>
       <c r="AJ2" s="1">
-        <v>720208</v>
+        <v>744976</v>
       </c>
       <c r="AK2" s="0">
         <v>184147968</v>
@@ -11827,16 +11827,16 @@
         <v>184147968</v>
       </c>
       <c r="AM2" s="0">
-        <v>183017472</v>
+        <v>198713344</v>
       </c>
       <c r="AN2" s="1">
-        <v>183017472</v>
+        <v>198713344</v>
       </c>
       <c r="AO2" s="0">
-        <v>752459776</v>
+        <v>771751936</v>
       </c>
       <c r="AP2" s="1">
-        <v>752459776</v>
+        <v>771751936</v>
       </c>
       <c r="AQ2" s="0" t="b">
         <v>1</v>
@@ -11845,13 +11845,13 @@
         <v>78</v>
       </c>
       <c r="AS2" s="0">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AT2" s="1">
-        <v>151695360</v>
+        <v>164675584</v>
       </c>
       <c r="AU2" s="2">
-        <v>0.00385903935185185</v>
+        <v>0.00395905092592593</v>
       </c>
       <c r="AV2" s="0" t="s">
         <v>67</v>
@@ -11878,16 +11878,16 @@
         <v>80</v>
       </c>
       <c r="BD2" s="2">
-        <v>0.0346522337962963</v>
+        <v>0.0352793981481482</v>
       </c>
       <c r="BE2" s="2">
-        <v>0.0307931828703704</v>
+        <v>0.0313203472222222</v>
       </c>
       <c r="BF2" s="0">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="BG2" s="1">
-        <v>681771008</v>
+        <v>701939712</v>
       </c>
       <c r="BH2" s="0" t="b">
         <v>0</v>
@@ -11902,10 +11902,10 @@
         <v>73</v>
       </c>
       <c r="BL2" s="0">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="BM2" s="1">
-        <v>107601920</v>
+        <v>118108160</v>
       </c>
       <c r="BN2" s="0" t="s">
         <v>73</v>
@@ -11928,7 +11928,7 @@
         <v>4412338176</v>
       </c>
       <c r="E3" s="1">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="F3" s="1">
         <v>3366912</v>
@@ -12105,10 +12105,10 @@
         <v>73</v>
       </c>
       <c r="BL3" s="0">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="BM3" s="1">
-        <v>8679424</v>
+        <v>8663040</v>
       </c>
       <c r="BN3" s="0" t="s">
         <v>73</v>
@@ -12125,19 +12125,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="0">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="D4" s="1">
-        <v>2203616440320</v>
+        <v>2203616907264</v>
       </c>
       <c r="E4" s="1">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="F4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="G4" s="1">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>84</v>
@@ -12146,7 +12146,7 @@
         <v>85</v>
       </c>
       <c r="J4" s="0">
-        <v>3.8125</v>
+        <v>4.03125</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>86</v>
@@ -12182,7 +12182,7 @@
         <v>74</v>
       </c>
       <c r="V4" s="0">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="W4" s="0">
         <v>16956</v>
@@ -12209,22 +12209,22 @@
         <v>92</v>
       </c>
       <c r="AE4" s="0">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="AF4" s="1">
-        <v>33720</v>
+        <v>34264</v>
       </c>
       <c r="AG4" s="0">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AH4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AI4" s="0">
-        <v>439720</v>
+        <v>441784</v>
       </c>
       <c r="AJ4" s="1">
-        <v>439720</v>
+        <v>441784</v>
       </c>
       <c r="AK4" s="0">
         <v>67493888</v>
@@ -12251,13 +12251,13 @@
         <v>78</v>
       </c>
       <c r="AS4" s="0">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AT4" s="1">
-        <v>41541632</v>
+        <v>46530560</v>
       </c>
       <c r="AU4" s="2">
-        <v>2.92939814814815E-05</v>
+        <v>3.07407407407407E-05</v>
       </c>
       <c r="AV4" s="0" t="s">
         <v>83</v>
@@ -12284,16 +12284,16 @@
         <v>93</v>
       </c>
       <c r="BD4" s="2">
-        <v>4.41203703703704E-05</v>
+        <v>4.66550925925926E-05</v>
       </c>
       <c r="BE4" s="2">
-        <v>1.48263888888889E-05</v>
+        <v>1.59143518518519E-05</v>
       </c>
       <c r="BF4" s="0">
-        <v>298217472</v>
+        <v>298684416</v>
       </c>
       <c r="BG4" s="1">
-        <v>2203616440320</v>
+        <v>2203616907264</v>
       </c>
       <c r="BH4" s="0" t="b">
         <v>0</v>
@@ -12308,10 +12308,10 @@
         <v>73</v>
       </c>
       <c r="BL4" s="0">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="BM4" s="1">
-        <v>28442624</v>
+        <v>28581888</v>
       </c>
       <c r="BN4" s="0" t="s">
         <v>73</v>
@@ -12334,10 +12334,10 @@
         <v>2203416113152</v>
       </c>
       <c r="E5" s="1">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="F5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="G5" s="1">
         <v>8832</v>
@@ -12418,10 +12418,10 @@
         <v>8832</v>
       </c>
       <c r="AG5" s="0">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AH5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AI5" s="0">
         <v>124784</v>
@@ -12430,10 +12430,10 @@
         <v>124784</v>
       </c>
       <c r="AK5" s="0">
-        <v>1916928</v>
+        <v>1986560</v>
       </c>
       <c r="AL5" s="1">
-        <v>1916928</v>
+        <v>1986560</v>
       </c>
       <c r="AM5" s="0">
         <v>8581120</v>
@@ -12454,10 +12454,10 @@
         <v>78</v>
       </c>
       <c r="AS5" s="0">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AT5" s="1">
-        <v>1794048</v>
+        <v>1929216</v>
       </c>
       <c r="AU5" s="2">
         <v>1.73611111111111E-07</v>
@@ -12511,10 +12511,10 @@
         <v>73</v>
       </c>
       <c r="BL5" s="0">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="BM5" s="1">
-        <v>4272128</v>
+        <v>4202496</v>
       </c>
       <c r="BN5" s="0" t="s">
         <v>73</v>
@@ -12537,7 +12537,7 @@
         <v>4745867264</v>
       </c>
       <c r="E6" s="1">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="F6" s="1">
         <v>38006784</v>
@@ -12714,10 +12714,10 @@
         <v>73</v>
       </c>
       <c r="BL6" s="0">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="BM6" s="1">
-        <v>503808</v>
+        <v>626688</v>
       </c>
       <c r="BN6" s="0" t="s">
         <v>73</v>
